--- a/regionseng/7/industry/industry.xlsx
+++ b/regionseng/7/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -483,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
     <col min="1" max="1" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -556,8 +556,14 @@
       <c r="P2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -606,8 +612,14 @@
       <c r="P3" s="8">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -656,8 +668,14 @@
       <c r="P4" s="8">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="8">
+        <v>44.3</v>
+      </c>
+      <c r="R4" s="8">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -706,8 +724,14 @@
       <c r="P5" s="9">
         <v>736</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9">
+        <v>755</v>
+      </c>
+      <c r="R5" s="9">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -756,8 +780,14 @@
       <c r="P6" s="10">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10">
+        <v>704</v>
+      </c>
+      <c r="R6" s="10">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -806,8 +836,14 @@
       <c r="P7" s="8">
         <v>730.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8">
+        <v>823.1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>959.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -856,8 +892,14 @@
       <c r="P8" s="8">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="R8" s="8">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -906,8 +948,14 @@
       <c r="P9" s="8">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8">
+        <v>7</v>
+      </c>
+      <c r="R9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -956,8 +1004,14 @@
       <c r="P10" s="8">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="8">
+        <v>21.6</v>
+      </c>
+      <c r="R10" s="8">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1060,14 @@
       <c r="P11" s="8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1116,14 @@
       <c r="P12" s="8">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="R12" s="8">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1072,7 +1138,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1087,7 +1153,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1170,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/regionseng/7/industry/industry.xlsx
+++ b/regionseng/7/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
     <col min="1" max="1" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -562,8 +562,11 @@
       <c r="R2" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="R3" s="8">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="8">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -674,8 +680,11 @@
       <c r="R4" s="8">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="8">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -730,8 +739,11 @@
       <c r="R5" s="9">
         <v>801</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="9">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -786,8 +798,11 @@
       <c r="R6" s="10">
         <v>708</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="10">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -842,8 +857,11 @@
       <c r="R7" s="8">
         <v>959.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="8">
+        <v>958.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -898,8 +916,11 @@
       <c r="R8" s="8">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="8">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -954,8 +975,11 @@
       <c r="R9" s="8">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1034,11 @@
       <c r="R10" s="8">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="8">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1066,8 +1093,11 @@
       <c r="R11" s="8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1122,8 +1152,11 @@
       <c r="R12" s="8">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="8">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1138,7 +1171,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1153,7 +1186,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1203,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
